--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T21:07:13-05:00</t>
+    <t>2022-06-30T09:28:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T09:28:59-05:00</t>
+    <t>2022-06-30T15:55:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T15:55:55-05:00</t>
+    <t>2022-07-26T16:10:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:10:15-05:00</t>
+    <t>2022-07-26T16:47:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:47:03-05:00</t>
+    <t>2022-07-28T10:15:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-28T10:15:20-05:00</t>
+    <t>2022-10-31T18:02:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-02T14:44:07-05:00</t>
+    <t>2022-12-01T09:35:21-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.nmdp.org/ig/matchsource/ValueSet/ms-rh-codes</t>
+    <t>http://fhir.nmdp.org/ig/matchsync/ValueSet/ms-rh-codes</t>
   </si>
   <si>
     <t>Version</t>
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Matchsource Rh Value Sets</t>
+    <t>MatchSync Rh Value Sets</t>
   </si>
   <si>
     <t>Status</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T09:35:21-06:00</t>
+    <t>2023-01-12T09:36:27-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +76,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>MatchSource codes for blood Rh. Combines NMDP and LOINC code</t>
+    <t>MatchSync codes for blood Rh. Combines NMDP and LOINC code</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -94,7 +94,7 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://fhir.nmdp.org/ig/matchsource/ValueSet/nmdp-rh-status-codes</t>
+    <t>http://fhir.nmdp.org/ig/matchsync/ValueSet/nmdp-rh-status-codes</t>
   </si>
   <si>
     <t>http://loinc.org/vs/LL360-9</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T09:36:27-06:00</t>
+    <t>2023-02-16T14:43:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,58 +296,60 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -366,12 +371,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -393,12 +398,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:43:10-06:00</t>
+    <t>2023-03-28T10:23:42-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:23:42-05:00</t>
+    <t>2023-04-06T10:47:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-ms-rh-codes.xlsx
+++ b/docs/ValueSet-ms-rh-codes.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T10:47:25-05:00</t>
+    <t>2023-05-09T13:12:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
